--- a/Översikt GNOSJÖ.xlsx
+++ b/Översikt GNOSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43922</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>44175</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
         <v>45161</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -827,7 +827,7 @@
         <v>43320</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         <v>43328</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>43342</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -998,7 +998,7 @@
         <v>43342</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>43353</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
         <v>43382</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>43389</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1226,7 +1226,7 @@
         <v>43398</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>43411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         <v>43417</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>43419</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>43419</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         <v>43440</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>43449</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>43451</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>43455</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>43468</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>43473</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>43476</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43476</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>43476</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>43481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>43495</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43495</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43496</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>43503</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>43503</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43503</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>43507</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>43511</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>43551</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43564</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43584</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43591</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43675</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43675</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>43675</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43675</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43696</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>43720</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43725</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>43727</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>43727</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>43731</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43741</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
         <v>43741</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3469,7 +3469,7 @@
         <v>43742</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>43742</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>43745</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>43745</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>43770</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>43770</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>43773</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3868,7 +3868,7 @@
         <v>43780</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>43838</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>43865</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>43870</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>43870</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>43889</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43901</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>43906</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>43913</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>43957</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>44000</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>44040</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4557,7 +4557,7 @@
         <v>44040</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4614,7 +4614,7 @@
         <v>44081</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4671,7 +4671,7 @@
         <v>44084</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>44084</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>44089</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>44114</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>44114</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4956,7 +4956,7 @@
         <v>44115</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         <v>44127</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>44127</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>44133</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5184,7 +5184,7 @@
         <v>44140</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>44145</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         <v>44161</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5355,7 +5355,7 @@
         <v>44161</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5412,7 +5412,7 @@
         <v>44166</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>44168</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>44174</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>44186</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>44203</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>44211</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>44223</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>44225</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>44228</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>44230</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>44230</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>44235</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>44252</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>44284</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>44312</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>44349</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>44423</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>44440</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>44446</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44447</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44456</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44467</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44467</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44467</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44468</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>44470</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>44470</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>44482</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44487</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>44487</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>44530</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>44588</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>44596</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>44616</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>44657</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>44672</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>44678</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>44721</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>44725</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>44747</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>44757</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>44789</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>44803</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>44804</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>44837</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>44850</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>44853</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>44858</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
         <v>44858</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>44858</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44866</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8349,7 +8349,7 @@
         <v>44893</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8406,7 +8406,7 @@
         <v>44903</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8463,7 +8463,7 @@
         <v>44928</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8520,7 +8520,7 @@
         <v>44937</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>44958</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>44963</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>45001</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>45009</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>45020</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>45021</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>45028</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>45029</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>45043</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>45049</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>45054</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>45054</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>45075</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>45075</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>45092</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>45092</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>45093</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9546,7 +9546,7 @@
         <v>45093</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>45096</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>45104</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>45104</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>45104</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>45113</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>45117</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>45118</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>45125</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>45140</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>45148</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>45148</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>45167</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>45168</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>

--- a/Översikt GNOSJÖ.xlsx
+++ b/Översikt GNOSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43922</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>44175</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
         <v>45161</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -827,7 +827,7 @@
         <v>43320</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         <v>43328</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>43342</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -998,7 +998,7 @@
         <v>43342</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>43353</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
         <v>43382</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>43389</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1226,7 +1226,7 @@
         <v>43398</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>43411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         <v>43417</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>43419</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>43419</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         <v>43440</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>43449</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>43451</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>43455</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>43468</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>43473</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>43476</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43476</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>43476</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>43481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>43495</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43495</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43496</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>43503</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>43503</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43503</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>43507</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>43511</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>43551</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43564</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43584</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43591</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43675</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43675</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>43675</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43675</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43696</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>43720</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43725</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>43727</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>43727</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>43731</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43741</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
         <v>43741</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3469,7 +3469,7 @@
         <v>43742</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>43742</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>43745</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>43745</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>43770</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>43770</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>43773</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3868,7 +3868,7 @@
         <v>43780</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>43838</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>43865</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>43870</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>43870</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>43889</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43901</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>43906</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>43913</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>43957</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>44000</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>44040</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4557,7 +4557,7 @@
         <v>44040</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4614,7 +4614,7 @@
         <v>44081</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4671,7 +4671,7 @@
         <v>44084</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>44084</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>44089</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>44114</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>44114</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4956,7 +4956,7 @@
         <v>44115</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         <v>44127</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>44127</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>44133</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5184,7 +5184,7 @@
         <v>44140</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>44145</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         <v>44161</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5355,7 +5355,7 @@
         <v>44161</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5412,7 +5412,7 @@
         <v>44166</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>44168</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>44174</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>44186</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>44203</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>44211</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>44223</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>44225</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>44228</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>44230</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>44230</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>44235</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>44252</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>44284</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>44312</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>44349</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>44423</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>44440</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>44446</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44447</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44456</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44467</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44467</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44467</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44468</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>44470</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>44470</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>44482</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44487</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>44487</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>44530</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>44588</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>44596</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>44616</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>44657</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>44672</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>44678</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>44721</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>44725</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>44747</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>44757</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>44789</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>44803</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>44804</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>44837</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>44850</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>44853</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>44858</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
         <v>44858</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>44858</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44866</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8349,7 +8349,7 @@
         <v>44893</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8406,7 +8406,7 @@
         <v>44903</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8463,7 +8463,7 @@
         <v>44928</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8520,7 +8520,7 @@
         <v>44937</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>44958</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>44963</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>45001</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>45009</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>45020</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>45021</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>45028</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>45029</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>45043</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>45049</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>45054</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>45054</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>45075</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>45075</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>45092</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>45092</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>45093</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9546,7 +9546,7 @@
         <v>45093</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>45096</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>45104</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>45104</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>45104</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>45113</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>45117</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>45118</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>45125</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>45140</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>45148</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>45148</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>45167</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>45168</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>

--- a/Översikt GNOSJÖ.xlsx
+++ b/Översikt GNOSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43922</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>44175</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
         <v>45161</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -827,7 +827,7 @@
         <v>43320</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         <v>43328</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>43342</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -998,7 +998,7 @@
         <v>43342</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>43353</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
         <v>43382</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>43389</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1226,7 +1226,7 @@
         <v>43398</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>43411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         <v>43417</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>43419</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>43419</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         <v>43440</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>43449</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>43451</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>43455</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>43468</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>43473</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>43476</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43476</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>43476</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>43481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>43495</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43495</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43496</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>43503</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>43503</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43503</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>43507</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>43511</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>43551</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43564</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43584</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43591</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43675</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43675</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>43675</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43675</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43696</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>43720</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43725</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>43727</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>43727</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>43731</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43741</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
         <v>43741</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3469,7 +3469,7 @@
         <v>43742</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>43742</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>43745</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>43745</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>43770</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>43770</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>43773</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3868,7 +3868,7 @@
         <v>43780</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>43838</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>43865</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>43870</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>43870</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>43889</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43901</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>43906</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>43913</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>43957</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>44000</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>44040</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4557,7 +4557,7 @@
         <v>44040</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4614,7 +4614,7 @@
         <v>44081</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4671,7 +4671,7 @@
         <v>44084</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>44084</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>44089</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>44114</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>44114</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4956,7 +4956,7 @@
         <v>44115</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         <v>44127</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>44127</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>44133</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5184,7 +5184,7 @@
         <v>44140</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>44145</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         <v>44161</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5355,7 +5355,7 @@
         <v>44161</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5412,7 +5412,7 @@
         <v>44166</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>44168</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>44174</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>44186</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>44203</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>44211</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>44223</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>44225</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>44228</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>44230</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>44230</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>44235</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>44252</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>44284</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>44312</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>44349</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>44423</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>44440</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>44446</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44447</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44456</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44467</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44467</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44467</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44468</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>44470</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>44470</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>44482</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44487</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>44487</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>44530</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>44588</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>44596</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>44616</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>44657</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>44672</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>44678</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>44721</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>44725</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>44747</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>44757</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>44789</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>44803</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>44804</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>44837</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>44850</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>44853</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>44858</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
         <v>44858</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>44858</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44866</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8349,7 +8349,7 @@
         <v>44893</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8406,7 +8406,7 @@
         <v>44903</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8463,7 +8463,7 @@
         <v>44928</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8520,7 +8520,7 @@
         <v>44937</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>44958</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>44963</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>45001</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>45009</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>45020</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>45021</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>45028</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>45029</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>45043</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>45049</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>45054</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>45054</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>45075</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>45075</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>45092</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>45092</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>45093</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9546,7 +9546,7 @@
         <v>45093</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>45096</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>45104</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>45104</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>45104</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>45113</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>45117</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>45118</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>45125</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>45140</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>45148</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>45148</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>45167</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>45168</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>

--- a/Översikt GNOSJÖ.xlsx
+++ b/Översikt GNOSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43922</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>44175</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
         <v>45161</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -827,7 +827,7 @@
         <v>43320</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         <v>43328</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>43342</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -998,7 +998,7 @@
         <v>43342</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>43353</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
         <v>43382</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>43389</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1226,7 +1226,7 @@
         <v>43398</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>43411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         <v>43417</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>43419</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>43419</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         <v>43440</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>43449</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>43451</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>43455</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>43468</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>43473</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>43476</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43476</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>43476</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>43481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>43495</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43495</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43496</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>43503</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>43503</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43503</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>43507</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>43511</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>43551</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43564</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43584</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43591</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43675</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43675</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>43675</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43675</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43696</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>43720</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43725</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>43727</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>43727</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>43731</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43741</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
         <v>43741</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3469,7 +3469,7 @@
         <v>43742</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>43742</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>43745</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>43745</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>43770</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>43770</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>43773</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3868,7 +3868,7 @@
         <v>43780</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>43838</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>43865</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>43870</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>43870</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>43889</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43901</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>43906</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>43913</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>43957</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>44000</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>44040</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4557,7 +4557,7 @@
         <v>44040</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4614,7 +4614,7 @@
         <v>44081</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4671,7 +4671,7 @@
         <v>44084</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>44084</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>44089</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>44114</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>44114</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4956,7 +4956,7 @@
         <v>44115</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         <v>44127</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>44127</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>44133</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5184,7 +5184,7 @@
         <v>44140</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>44145</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         <v>44161</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5355,7 +5355,7 @@
         <v>44161</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5412,7 +5412,7 @@
         <v>44166</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>44168</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>44174</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>44186</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>44203</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>44211</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>44223</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>44225</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>44228</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>44230</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>44230</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>44235</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>44252</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>44284</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>44312</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>44349</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>44423</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>44440</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>44446</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44447</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44456</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44467</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44467</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44467</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44468</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>44470</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>44470</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>44482</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44487</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>44487</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>44530</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>44588</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>44596</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>44616</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>44657</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>44672</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>44678</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>44721</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>44725</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>44747</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>44757</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>44789</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>44803</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>44804</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>44837</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>44850</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>44853</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>44858</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
         <v>44858</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>44858</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44866</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8349,7 +8349,7 @@
         <v>44893</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8406,7 +8406,7 @@
         <v>44903</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8463,7 +8463,7 @@
         <v>44928</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8520,7 +8520,7 @@
         <v>44937</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>44958</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>44963</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>45001</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>45009</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>45020</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>45021</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>45028</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>45029</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>45043</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>45049</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>45054</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>45054</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>45075</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>45075</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>45092</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>45092</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>45093</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9546,7 +9546,7 @@
         <v>45093</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>45096</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>45104</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>45104</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>45104</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>45113</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>45117</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>45118</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>45125</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>45140</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>45148</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>45148</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>45167</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>45168</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>

--- a/Översikt GNOSJÖ.xlsx
+++ b/Översikt GNOSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43922</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>44175</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
         <v>45161</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -827,7 +827,7 @@
         <v>43320</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         <v>43328</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>43342</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -998,7 +998,7 @@
         <v>43342</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>43353</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
         <v>43382</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>43389</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1226,7 +1226,7 @@
         <v>43398</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>43411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         <v>43417</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>43419</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>43419</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         <v>43440</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>43449</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>43451</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>43455</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>43468</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>43473</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>43476</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43476</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>43476</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>43481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>43495</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43495</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43496</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>43503</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>43503</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43503</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>43507</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>43511</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>43551</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43564</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43584</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43591</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43675</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43675</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>43675</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43675</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43696</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>43720</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43725</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>43727</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>43727</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>43731</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43741</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
         <v>43741</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3469,7 +3469,7 @@
         <v>43742</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>43742</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>43745</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>43745</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>43770</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>43770</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>43773</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3868,7 +3868,7 @@
         <v>43780</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>43838</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>43865</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>43870</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>43870</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>43889</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43901</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>43906</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>43913</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>43957</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>44000</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>44040</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4557,7 +4557,7 @@
         <v>44040</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4614,7 +4614,7 @@
         <v>44081</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4671,7 +4671,7 @@
         <v>44084</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>44084</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>44089</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>44114</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>44114</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4956,7 +4956,7 @@
         <v>44115</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         <v>44127</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>44127</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>44133</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5184,7 +5184,7 @@
         <v>44140</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>44145</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         <v>44161</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5355,7 +5355,7 @@
         <v>44161</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5412,7 +5412,7 @@
         <v>44166</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>44168</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>44174</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>44186</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>44203</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>44211</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>44223</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>44225</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>44228</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>44230</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>44230</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>44235</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>44252</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>44284</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>44312</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>44349</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>44423</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>44440</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>44446</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44447</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44456</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44467</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44467</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44467</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44468</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>44470</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>44470</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>44482</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44487</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>44487</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>44530</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>44588</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>44596</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>44616</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>44657</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>44672</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>44678</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>44721</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>44725</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>44747</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>44757</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>44789</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>44803</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>44804</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>44837</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>44850</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>44853</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>44858</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
         <v>44858</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>44858</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44866</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8349,7 +8349,7 @@
         <v>44893</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8406,7 +8406,7 @@
         <v>44903</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8463,7 +8463,7 @@
         <v>44928</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8520,7 +8520,7 @@
         <v>44937</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>44958</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>44963</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>45001</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>45009</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>45020</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>45021</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>45028</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>45029</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>45043</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>45049</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>45054</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>45054</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>45075</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>45075</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>45092</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>45092</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>45093</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9546,7 +9546,7 @@
         <v>45093</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>45096</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>45104</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>45104</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>45104</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>45113</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>45117</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>45118</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>45125</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>45140</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>45148</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>45148</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>45167</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>45168</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>

--- a/Översikt GNOSJÖ.xlsx
+++ b/Översikt GNOSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43922</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>44175</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
         <v>45161</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -827,7 +827,7 @@
         <v>43320</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         <v>43328</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>43342</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -998,7 +998,7 @@
         <v>43342</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>43353</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
         <v>43382</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>43389</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1226,7 +1226,7 @@
         <v>43398</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>43411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         <v>43417</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>43419</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>43419</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         <v>43440</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>43449</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>43451</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>43455</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>43468</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>43473</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>43476</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43476</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>43476</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>43481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>43495</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43495</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43496</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>43503</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>43503</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43503</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>43507</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>43511</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>43551</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43564</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43584</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43591</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43675</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43675</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>43675</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43675</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43696</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>43720</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43725</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>43727</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>43727</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>43731</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43741</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
         <v>43741</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3469,7 +3469,7 @@
         <v>43742</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>43742</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>43745</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>43745</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>43770</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>43770</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>43773</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3868,7 +3868,7 @@
         <v>43780</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>43838</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>43865</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>43870</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>43870</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>43889</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43901</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>43906</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>43913</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>43957</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>44000</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>44040</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4557,7 +4557,7 @@
         <v>44040</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4614,7 +4614,7 @@
         <v>44081</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4671,7 +4671,7 @@
         <v>44084</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>44084</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>44089</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>44114</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>44114</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4956,7 +4956,7 @@
         <v>44115</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         <v>44127</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>44127</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>44133</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5184,7 +5184,7 @@
         <v>44140</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>44145</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         <v>44161</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5355,7 +5355,7 @@
         <v>44161</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5412,7 +5412,7 @@
         <v>44166</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>44168</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>44174</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>44186</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>44203</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>44211</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>44223</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>44225</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>44228</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>44230</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>44230</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>44235</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>44252</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>44284</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>44312</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>44349</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>44423</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>44440</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>44446</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44447</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44456</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44467</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44467</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44467</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44468</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>44470</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>44470</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>44482</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44487</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>44487</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>44530</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>44588</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>44596</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>44616</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>44657</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>44672</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>44678</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>44721</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>44725</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>44747</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>44757</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>44789</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>44803</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>44804</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>44837</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>44850</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>44853</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>44858</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
         <v>44858</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>44858</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44866</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8349,7 +8349,7 @@
         <v>44893</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8406,7 +8406,7 @@
         <v>44903</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8463,7 +8463,7 @@
         <v>44928</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8520,7 +8520,7 @@
         <v>44937</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>44958</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>44963</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>45001</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>45009</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>45020</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>45021</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>45028</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>45029</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>45043</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>45049</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>45054</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>45054</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>45075</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>45075</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>45092</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>45092</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>45093</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9546,7 +9546,7 @@
         <v>45093</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>45096</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>45104</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>45104</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>45104</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>45113</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>45117</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>45118</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>45125</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>45140</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>45148</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>45148</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>45167</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>45168</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>

--- a/Översikt GNOSJÖ.xlsx
+++ b/Översikt GNOSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43922</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>44175</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
         <v>45161</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -827,7 +827,7 @@
         <v>43320</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         <v>43328</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>43342</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -998,7 +998,7 @@
         <v>43342</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>43353</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
         <v>43382</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>43389</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1226,7 +1226,7 @@
         <v>43398</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>43411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         <v>43417</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>43419</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>43419</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         <v>43440</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>43449</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>43451</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>43455</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>43468</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>43473</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>43476</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43476</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>43476</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>43481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>43495</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43495</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43496</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>43503</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>43503</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43503</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>43507</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>43511</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>43551</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43564</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43584</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43591</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43675</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43675</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>43675</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43675</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43696</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>43720</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43725</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>43727</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>43727</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>43731</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43741</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
         <v>43741</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3469,7 +3469,7 @@
         <v>43742</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>43742</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>43745</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>43745</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>43770</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>43770</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>43773</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3868,7 +3868,7 @@
         <v>43780</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>43838</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>43865</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>43870</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>43870</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>43889</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43901</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>43906</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>43913</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>43957</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>44000</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>44040</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4557,7 +4557,7 @@
         <v>44040</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4614,7 +4614,7 @@
         <v>44081</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4671,7 +4671,7 @@
         <v>44084</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>44084</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>44089</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>44114</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>44114</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4956,7 +4956,7 @@
         <v>44115</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         <v>44127</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>44127</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>44133</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5184,7 +5184,7 @@
         <v>44140</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>44145</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         <v>44161</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5355,7 +5355,7 @@
         <v>44161</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5412,7 +5412,7 @@
         <v>44166</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>44168</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>44174</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>44186</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>44203</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>44211</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>44223</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>44225</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>44228</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>44230</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>44230</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>44235</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>44252</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>44284</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>44312</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>44349</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>44423</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>44440</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>44446</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44447</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44456</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44467</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44467</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44467</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44468</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>44470</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>44470</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>44482</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44487</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>44487</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>44530</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>44588</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>44596</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>44616</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>44657</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>44672</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>44678</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>44721</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>44725</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>44747</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>44757</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>44789</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>44803</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>44804</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>44837</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>44850</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>44853</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>44858</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
         <v>44858</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>44858</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44866</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8349,7 +8349,7 @@
         <v>44893</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8406,7 +8406,7 @@
         <v>44903</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8463,7 +8463,7 @@
         <v>44928</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8520,7 +8520,7 @@
         <v>44937</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>44958</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>44963</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>45001</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>45009</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>45020</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>45021</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>45028</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>45029</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>45043</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>45049</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>45054</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>45054</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>45075</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>45075</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>45092</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>45092</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>45093</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9546,7 +9546,7 @@
         <v>45093</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>45096</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>45104</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>45104</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>45104</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>45113</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>45117</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>45118</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>45125</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>45140</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>45148</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>45148</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>45167</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>45168</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>

--- a/Översikt GNOSJÖ.xlsx
+++ b/Översikt GNOSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43922</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>44175</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
         <v>45161</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -827,7 +827,7 @@
         <v>43320</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         <v>43328</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>43342</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -998,7 +998,7 @@
         <v>43342</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>43353</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
         <v>43382</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>43389</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1226,7 +1226,7 @@
         <v>43398</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>43411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         <v>43417</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>43419</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>43419</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         <v>43440</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>43449</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>43451</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>43455</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>43468</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>43473</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>43476</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43476</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>43476</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>43481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>43495</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43495</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43496</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>43503</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>43503</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43503</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>43507</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>43511</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>43551</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43564</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43584</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43591</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43675</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43675</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>43675</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43675</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43696</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>43720</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43725</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>43727</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>43727</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>43731</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43741</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
         <v>43741</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3469,7 +3469,7 @@
         <v>43742</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>43742</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>43745</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>43745</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>43770</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>43770</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>43773</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3868,7 +3868,7 @@
         <v>43780</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>43838</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>43865</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>43870</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>43870</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>43889</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43901</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>43906</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>43913</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>43957</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>44000</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>44040</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4557,7 +4557,7 @@
         <v>44040</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4614,7 +4614,7 @@
         <v>44081</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4671,7 +4671,7 @@
         <v>44084</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>44084</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>44089</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>44114</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>44114</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4956,7 +4956,7 @@
         <v>44115</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         <v>44127</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>44127</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>44133</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5184,7 +5184,7 @@
         <v>44140</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>44145</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         <v>44161</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5355,7 +5355,7 @@
         <v>44161</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5412,7 +5412,7 @@
         <v>44166</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>44168</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>44174</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>44186</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>44203</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>44211</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>44223</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>44225</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>44228</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>44230</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>44230</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>44235</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>44252</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>44284</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>44312</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>44349</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>44423</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>44440</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>44446</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44447</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44456</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44467</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44467</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44467</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44468</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>44470</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>44470</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>44482</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44487</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>44487</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>44530</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>44588</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>44596</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>44616</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>44657</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>44672</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>44678</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>44721</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>44725</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>44747</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>44757</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>44789</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>44803</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>44804</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>44837</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>44850</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>44853</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>44858</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
         <v>44858</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>44858</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44866</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8349,7 +8349,7 @@
         <v>44893</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8406,7 +8406,7 @@
         <v>44903</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8463,7 +8463,7 @@
         <v>44928</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8520,7 +8520,7 @@
         <v>44937</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>44958</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>44963</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>45001</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>45009</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>45020</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>45021</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>45028</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>45029</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>45043</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>45049</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>45054</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>45054</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>45075</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>45075</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>45092</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>45092</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>45093</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9546,7 +9546,7 @@
         <v>45093</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>45096</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>45104</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>45104</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>45104</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>45113</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>45117</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>45118</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>45125</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>45140</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>45148</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>45148</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>45167</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>45168</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>

--- a/Översikt GNOSJÖ.xlsx
+++ b/Översikt GNOSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43922</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>44175</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
         <v>45161</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -827,7 +827,7 @@
         <v>43320</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         <v>43328</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>43342</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -998,7 +998,7 @@
         <v>43342</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>43353</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
         <v>43382</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>43389</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1226,7 +1226,7 @@
         <v>43398</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>43411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         <v>43417</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>43419</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>43419</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         <v>43440</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>43449</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>43451</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>43455</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>43468</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>43473</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>43476</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43476</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>43476</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>43481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>43495</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43495</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43496</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>43503</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>43503</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43503</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>43507</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>43511</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>43551</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43564</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43584</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43591</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43675</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43675</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>43675</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43675</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43696</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>43720</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43725</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>43727</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>43727</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>43731</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43741</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
         <v>43741</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3469,7 +3469,7 @@
         <v>43742</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>43742</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>43745</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>43745</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>43770</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>43770</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>43773</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3868,7 +3868,7 @@
         <v>43780</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>43838</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>43865</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>43870</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>43870</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>43889</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43901</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>43906</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>43913</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>43957</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>44000</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>44040</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4557,7 +4557,7 @@
         <v>44040</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4614,7 +4614,7 @@
         <v>44081</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4671,7 +4671,7 @@
         <v>44084</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>44084</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>44089</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>44114</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>44114</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4956,7 +4956,7 @@
         <v>44115</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         <v>44127</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>44127</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>44133</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5184,7 +5184,7 @@
         <v>44140</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>44145</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         <v>44161</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5355,7 +5355,7 @@
         <v>44161</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5412,7 +5412,7 @@
         <v>44166</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>44168</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>44174</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>44186</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>44203</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>44211</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>44223</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>44225</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>44228</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>44230</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>44230</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>44235</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>44252</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>44284</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>44312</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>44349</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>44423</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>44440</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>44446</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44447</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44456</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44467</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44467</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44467</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44468</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>44470</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>44470</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>44482</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44487</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>44487</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>44530</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>44588</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>44596</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>44616</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>44657</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>44672</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>44678</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>44721</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>44725</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>44747</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>44757</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>44789</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>44803</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>44804</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>44837</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>44850</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>44853</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>44858</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
         <v>44858</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>44858</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44866</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8349,7 +8349,7 @@
         <v>44893</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8406,7 +8406,7 @@
         <v>44903</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8463,7 +8463,7 @@
         <v>44928</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8520,7 +8520,7 @@
         <v>44937</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>44958</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>44963</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>45001</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>45009</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>45020</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>45021</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>45028</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>45029</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>45043</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>45049</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>45054</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>45054</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>45075</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>45075</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>45092</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>45092</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>45093</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9546,7 +9546,7 @@
         <v>45093</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>45096</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>45104</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>45104</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>45104</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>45113</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>45117</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>45118</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>45125</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>45140</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>45148</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>45148</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>45167</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>45168</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>

--- a/Översikt GNOSJÖ.xlsx
+++ b/Översikt GNOSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43922</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -623,27 +623,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNOSJO/artfynd/A 17322-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNOSJO/artfynd/A 17322-2020.xlsx", "A 17322-2020")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNOSJO/kartor/A 17322-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNOSJO/kartor/A 17322-2020.png", "A 17322-2020")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNOSJO/klagomål/A 17322-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNOSJO/klagomål/A 17322-2020.docx", "A 17322-2020")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNOSJO/klagomålsmail/A 17322-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNOSJO/klagomålsmail/A 17322-2020.docx", "A 17322-2020")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNOSJO/tillsyn/A 17322-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNOSJO/tillsyn/A 17322-2020.docx", "A 17322-2020")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNOSJO/tillsynsmail/A 17322-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNOSJO/tillsynsmail/A 17322-2020.docx", "A 17322-2020")</f>
         <v/>
       </c>
     </row>
@@ -657,7 +657,7 @@
         <v>44175</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -708,27 +708,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNOSJO/artfynd/A 66211-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNOSJO/artfynd/A 66211-2020.xlsx", "A 66211-2020")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNOSJO/kartor/A 66211-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNOSJO/kartor/A 66211-2020.png", "A 66211-2020")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNOSJO/klagomål/A 66211-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNOSJO/klagomål/A 66211-2020.docx", "A 66211-2020")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNOSJO/klagomålsmail/A 66211-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNOSJO/klagomålsmail/A 66211-2020.docx", "A 66211-2020")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNOSJO/tillsyn/A 66211-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNOSJO/tillsyn/A 66211-2020.docx", "A 66211-2020")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNOSJO/tillsynsmail/A 66211-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNOSJO/tillsynsmail/A 66211-2020.docx", "A 66211-2020")</f>
         <v/>
       </c>
     </row>
@@ -742,7 +742,7 @@
         <v>45161</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -793,27 +793,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNOSJO/artfynd/A 38355-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNOSJO/artfynd/A 38355-2023.xlsx", "A 38355-2023")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNOSJO/kartor/A 38355-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNOSJO/kartor/A 38355-2023.png", "A 38355-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNOSJO/klagomål/A 38355-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNOSJO/klagomål/A 38355-2023.docx", "A 38355-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNOSJO/klagomålsmail/A 38355-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNOSJO/klagomålsmail/A 38355-2023.docx", "A 38355-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNOSJO/tillsyn/A 38355-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNOSJO/tillsyn/A 38355-2023.docx", "A 38355-2023")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GNOSJO/tillsynsmail/A 38355-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GNOSJO/tillsynsmail/A 38355-2023.docx", "A 38355-2023")</f>
         <v/>
       </c>
     </row>
@@ -827,7 +827,7 @@
         <v>43320</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         <v>43328</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>43342</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -998,7 +998,7 @@
         <v>43342</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>43353</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
         <v>43382</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>43389</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1226,7 +1226,7 @@
         <v>43398</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>43411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         <v>43417</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>43419</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>43419</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         <v>43440</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>43449</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>43451</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>43455</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>43468</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>43473</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>43476</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43476</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>43476</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>43481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>43495</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43495</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43496</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>43503</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>43503</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43503</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>43507</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>43511</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>43551</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43564</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43584</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43591</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43675</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43675</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>43675</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43675</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43696</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>43720</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43725</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>43727</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>43727</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>43731</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43741</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
         <v>43741</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3469,7 +3469,7 @@
         <v>43742</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>43742</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>43745</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>43745</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>43770</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>43770</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>43773</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3868,7 +3868,7 @@
         <v>43780</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>43838</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>43865</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>43870</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>43870</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>43889</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43901</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>43906</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>43913</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>43957</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>44000</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>44040</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4557,7 +4557,7 @@
         <v>44040</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4614,7 +4614,7 @@
         <v>44081</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4671,7 +4671,7 @@
         <v>44084</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>44084</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>44089</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>44114</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>44114</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4956,7 +4956,7 @@
         <v>44115</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         <v>44127</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>44127</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>44133</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5184,7 +5184,7 @@
         <v>44140</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>44145</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         <v>44161</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5355,7 +5355,7 @@
         <v>44161</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5412,7 +5412,7 @@
         <v>44166</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>44168</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>44174</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>44186</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>44203</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>44211</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>44223</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>44225</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>44228</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>44230</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>44230</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>44235</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>44252</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>44284</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>44312</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>44349</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>44423</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>44440</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>44446</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44447</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44456</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44467</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44467</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44467</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44468</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>44470</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>44470</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>44482</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44487</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>44487</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>44530</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>44588</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>44596</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>44616</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>44657</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>44672</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>44678</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>44721</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>44725</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>44747</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>44757</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>44789</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>44803</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>44804</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>44837</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>44850</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>44853</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>44858</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
         <v>44858</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>44858</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44866</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8349,7 +8349,7 @@
         <v>44893</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8406,7 +8406,7 @@
         <v>44903</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8463,7 +8463,7 @@
         <v>44928</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8520,7 +8520,7 @@
         <v>44937</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>44958</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>44963</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>45001</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>45009</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>45020</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>45021</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>45028</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>45029</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>45043</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>45049</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>45054</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>45054</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>45075</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>45075</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>45092</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>45092</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>45093</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9546,7 +9546,7 @@
         <v>45093</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>45096</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>45104</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>45104</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>45104</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>45113</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>45117</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>45118</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>45125</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>45140</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>45148</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>45148</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>45167</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>45168</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>

--- a/Översikt GNOSJÖ.xlsx
+++ b/Översikt GNOSJÖ.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y170"/>
+  <dimension ref="A1:Y171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43922</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>44175</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
         <v>45161</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -827,7 +827,7 @@
         <v>43320</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         <v>43328</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>43342</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -998,7 +998,7 @@
         <v>43342</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>43353</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
         <v>43382</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>43389</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1226,7 +1226,7 @@
         <v>43398</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>43411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         <v>43417</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>43419</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>43419</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         <v>43440</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>43449</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>43451</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>43455</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>43468</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>43473</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>43476</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43476</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>43476</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>43481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>43495</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43495</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43496</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>43503</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>43503</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43503</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>43507</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>43511</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>43551</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43564</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43584</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43591</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43675</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43675</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>43675</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43675</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43696</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>43720</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43725</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>43727</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>43727</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>43731</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43741</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
         <v>43741</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3469,7 +3469,7 @@
         <v>43742</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>43742</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>43745</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>43745</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>43770</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>43770</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>43773</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3868,7 +3868,7 @@
         <v>43780</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>43838</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>43865</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>43870</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>43870</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>43889</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43901</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>43906</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>43913</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>43957</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>44000</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>44040</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4557,7 +4557,7 @@
         <v>44040</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4614,7 +4614,7 @@
         <v>44081</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4671,7 +4671,7 @@
         <v>44084</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>44084</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>44089</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>44114</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>44114</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4956,7 +4956,7 @@
         <v>44115</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         <v>44127</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>44127</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>44133</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5184,7 +5184,7 @@
         <v>44140</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>44145</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         <v>44161</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5355,7 +5355,7 @@
         <v>44161</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5412,7 +5412,7 @@
         <v>44166</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>44168</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>44174</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>44186</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>44203</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>44211</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>44223</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>44225</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>44228</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>44230</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>44230</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>44235</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>44252</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>44284</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>44312</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>44349</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>44423</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>44440</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>44446</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44447</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44456</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44467</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44467</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44467</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44468</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>44470</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>44470</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>44482</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44487</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>44487</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>44530</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>44588</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>44596</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>44616</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>44657</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>44672</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>44678</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>44721</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>44725</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>44747</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>44757</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>44789</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>44803</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>44804</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>44837</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>44850</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>44853</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>44858</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
         <v>44858</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>44858</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44866</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8349,7 +8349,7 @@
         <v>44893</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8406,7 +8406,7 @@
         <v>44903</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8463,7 +8463,7 @@
         <v>44928</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8520,7 +8520,7 @@
         <v>44937</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>44958</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>44963</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>45001</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>45009</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>45020</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>45021</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>45028</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>45029</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>45043</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>45049</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>45054</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>45054</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>45075</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>45075</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>45092</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>45092</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>45093</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9546,7 +9546,7 @@
         <v>45093</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>45096</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>45104</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>45104</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>45104</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>45113</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>45117</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>45118</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>45125</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>45140</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>45148</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>45148</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>45167</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
       </c>
       <c r="R169" s="2" t="inlineStr"/>
     </row>
-    <row r="170">
+    <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
           <t>A 40067-2023</t>
@@ -10292,7 +10292,7 @@
         <v>45168</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10338,6 +10338,63 @@
         <v>0</v>
       </c>
       <c r="R170" s="2" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>A 43784-2023</t>
+        </is>
+      </c>
+      <c r="B171" s="1" t="n">
+        <v>45187</v>
+      </c>
+      <c r="C171" s="1" t="n">
+        <v>45188</v>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>JÖNKÖPINGS LÄN</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>GNOSJÖ</t>
+        </is>
+      </c>
+      <c r="G171" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="n">
+        <v>0</v>
+      </c>
+      <c r="L171" t="n">
+        <v>0</v>
+      </c>
+      <c r="M171" t="n">
+        <v>0</v>
+      </c>
+      <c r="N171" t="n">
+        <v>0</v>
+      </c>
+      <c r="O171" t="n">
+        <v>0</v>
+      </c>
+      <c r="P171" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q171" t="n">
+        <v>0</v>
+      </c>
+      <c r="R171" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt GNOSJÖ.xlsx
+++ b/Översikt GNOSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43922</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>44175</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
         <v>45161</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -827,7 +827,7 @@
         <v>43320</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         <v>43328</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>43342</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -998,7 +998,7 @@
         <v>43342</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>43353</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
         <v>43382</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>43389</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1226,7 +1226,7 @@
         <v>43398</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>43411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         <v>43417</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>43419</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>43419</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         <v>43440</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>43449</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>43451</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>43455</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>43468</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>43473</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>43476</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43476</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>43476</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>43481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>43495</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43495</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43496</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>43503</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>43503</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43503</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>43507</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>43511</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>43551</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43564</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43584</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43591</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43675</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43675</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>43675</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43675</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43696</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>43720</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43725</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>43727</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>43727</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>43731</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43741</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
         <v>43741</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3469,7 +3469,7 @@
         <v>43742</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>43742</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>43745</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>43745</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>43770</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>43770</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>43773</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3868,7 +3868,7 @@
         <v>43780</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>43838</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>43865</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>43870</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>43870</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>43889</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43901</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>43906</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>43913</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>43957</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>44000</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>44040</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4557,7 +4557,7 @@
         <v>44040</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4614,7 +4614,7 @@
         <v>44081</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4671,7 +4671,7 @@
         <v>44084</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>44084</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>44089</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>44114</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>44114</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4956,7 +4956,7 @@
         <v>44115</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         <v>44127</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>44127</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>44133</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5184,7 +5184,7 @@
         <v>44140</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>44145</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         <v>44161</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5355,7 +5355,7 @@
         <v>44161</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5412,7 +5412,7 @@
         <v>44166</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>44168</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>44174</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>44186</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>44203</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>44211</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>44223</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>44225</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>44228</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>44230</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>44230</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>44235</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>44252</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>44284</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>44312</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>44349</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>44423</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>44440</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>44446</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44447</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44456</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44467</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44467</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44467</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44468</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>44470</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>44470</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>44482</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44487</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>44487</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>44530</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>44588</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>44596</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>44616</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>44657</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>44672</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>44678</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>44721</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>44725</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>44747</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>44757</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>44789</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>44803</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>44804</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>44837</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>44850</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>44853</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>44858</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
         <v>44858</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>44858</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44866</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8349,7 +8349,7 @@
         <v>44893</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8406,7 +8406,7 @@
         <v>44903</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8463,7 +8463,7 @@
         <v>44928</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8520,7 +8520,7 @@
         <v>44937</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>44958</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>44963</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>45001</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>45009</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>45020</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>45021</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>45028</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>45029</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>45043</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>45049</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>45054</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>45054</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>45075</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>45075</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>45092</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>45092</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>45093</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9546,7 +9546,7 @@
         <v>45093</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>45096</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>45104</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>45104</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>45104</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>45113</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>45117</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>45118</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>45125</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>45140</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>45148</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>45148</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>45167</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>45168</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>45187</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>

--- a/Översikt GNOSJÖ.xlsx
+++ b/Översikt GNOSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43922</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>44175</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
         <v>45161</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -827,7 +827,7 @@
         <v>43320</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         <v>43328</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>43342</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -998,7 +998,7 @@
         <v>43342</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>43353</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
         <v>43382</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>43389</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1226,7 +1226,7 @@
         <v>43398</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>43411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         <v>43417</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>43419</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>43419</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         <v>43440</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>43449</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>43451</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>43455</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>43468</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>43473</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>43476</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43476</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>43476</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>43481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>43495</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43495</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43496</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>43503</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>43503</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43503</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>43507</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>43511</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>43551</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43564</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43584</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43591</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43675</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43675</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>43675</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43675</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43696</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>43720</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43725</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>43727</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>43727</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>43731</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43741</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
         <v>43741</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3469,7 +3469,7 @@
         <v>43742</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>43742</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>43745</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>43745</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>43770</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>43770</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>43773</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3868,7 +3868,7 @@
         <v>43780</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>43838</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>43865</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>43870</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>43870</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>43889</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43901</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>43906</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>43913</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>43957</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>44000</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>44040</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4557,7 +4557,7 @@
         <v>44040</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4614,7 +4614,7 @@
         <v>44081</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4671,7 +4671,7 @@
         <v>44084</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>44084</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>44089</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>44114</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>44114</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4956,7 +4956,7 @@
         <v>44115</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         <v>44127</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>44127</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>44133</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5184,7 +5184,7 @@
         <v>44140</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>44145</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         <v>44161</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5355,7 +5355,7 @@
         <v>44161</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5412,7 +5412,7 @@
         <v>44166</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>44168</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>44174</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>44186</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>44203</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>44211</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>44223</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>44225</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>44228</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>44230</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>44230</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>44235</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>44252</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>44284</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>44312</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>44349</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>44423</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>44440</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>44446</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44447</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44456</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44467</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44467</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44467</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44468</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>44470</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>44470</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>44482</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44487</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>44487</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>44530</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>44588</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>44596</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>44616</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>44657</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>44672</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>44678</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>44721</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>44725</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>44747</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>44757</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>44789</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>44803</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>44804</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>44837</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>44850</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>44853</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>44858</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
         <v>44858</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>44858</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44866</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8349,7 +8349,7 @@
         <v>44893</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8406,7 +8406,7 @@
         <v>44903</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8463,7 +8463,7 @@
         <v>44928</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8520,7 +8520,7 @@
         <v>44937</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>44958</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>44963</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>45001</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>45009</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>45020</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>45021</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>45028</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>45029</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>45043</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>45049</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>45054</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>45054</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>45075</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>45075</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>45092</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>45092</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>45093</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9546,7 +9546,7 @@
         <v>45093</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>45096</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>45104</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>45104</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>45104</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>45113</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>45117</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>45118</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>45125</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>45140</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>45148</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>45148</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>45167</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>45168</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>45187</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>

--- a/Översikt GNOSJÖ.xlsx
+++ b/Översikt GNOSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43922</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>44175</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
         <v>45161</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -827,7 +827,7 @@
         <v>43320</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         <v>43328</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>43342</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -998,7 +998,7 @@
         <v>43342</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>43353</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
         <v>43382</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>43389</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1226,7 +1226,7 @@
         <v>43398</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>43411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         <v>43417</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>43419</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>43419</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         <v>43440</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>43449</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>43451</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>43455</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>43468</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>43473</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>43476</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43476</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>43476</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>43481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>43495</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43495</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43496</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>43503</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>43503</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43503</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>43507</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>43511</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>43551</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43564</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43584</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43591</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43675</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43675</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>43675</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43675</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43696</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>43720</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43725</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>43727</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>43727</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>43731</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43741</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
         <v>43741</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3469,7 +3469,7 @@
         <v>43742</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>43742</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>43745</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>43745</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>43770</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>43770</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>43773</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3868,7 +3868,7 @@
         <v>43780</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>43838</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>43865</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>43870</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>43870</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>43889</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43901</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>43906</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>43913</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>43957</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>44000</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>44040</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4557,7 +4557,7 @@
         <v>44040</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4614,7 +4614,7 @@
         <v>44081</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4671,7 +4671,7 @@
         <v>44084</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>44084</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>44089</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>44114</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>44114</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4956,7 +4956,7 @@
         <v>44115</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         <v>44127</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>44127</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>44133</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5184,7 +5184,7 @@
         <v>44140</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>44145</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         <v>44161</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5355,7 +5355,7 @@
         <v>44161</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5412,7 +5412,7 @@
         <v>44166</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>44168</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>44174</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>44186</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>44203</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>44211</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>44223</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>44225</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>44228</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>44230</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>44230</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>44235</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>44252</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>44284</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>44312</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>44349</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>44423</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>44440</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>44446</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44447</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44456</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44467</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44467</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44467</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44468</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>44470</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>44470</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>44482</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44487</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>44487</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>44530</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>44588</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>44596</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>44616</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>44657</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>44672</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>44678</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>44721</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>44725</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>44747</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>44757</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>44789</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>44803</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>44804</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>44837</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>44850</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>44853</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>44858</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
         <v>44858</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>44858</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44866</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8349,7 +8349,7 @@
         <v>44893</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8406,7 +8406,7 @@
         <v>44903</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8463,7 +8463,7 @@
         <v>44928</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8520,7 +8520,7 @@
         <v>44937</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>44958</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>44963</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>45001</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>45009</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>45020</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>45021</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>45028</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>45029</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>45043</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>45049</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>45054</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>45054</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>45075</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>45075</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>45092</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>45092</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>45093</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9546,7 +9546,7 @@
         <v>45093</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>45096</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>45104</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>45104</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>45104</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>45113</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>45117</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>45118</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>45125</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>45140</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>45148</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>45148</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>45167</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>45168</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>45187</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>

--- a/Översikt GNOSJÖ.xlsx
+++ b/Översikt GNOSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43922</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>44175</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
         <v>45161</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -827,7 +827,7 @@
         <v>43320</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         <v>43328</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>43342</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -998,7 +998,7 @@
         <v>43342</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>43353</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
         <v>43382</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>43389</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1226,7 +1226,7 @@
         <v>43398</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>43411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         <v>43417</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>43419</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>43419</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         <v>43440</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>43449</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>43451</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>43455</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>43468</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>43473</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>43476</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43476</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>43476</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>43481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>43495</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43495</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43496</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>43503</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>43503</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43503</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>43507</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>43511</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>43551</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43564</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43584</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43591</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43675</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43675</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>43675</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43675</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43696</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>43720</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43725</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>43727</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>43727</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>43731</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43741</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
         <v>43741</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3469,7 +3469,7 @@
         <v>43742</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>43742</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>43745</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>43745</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>43770</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>43770</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>43773</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3868,7 +3868,7 @@
         <v>43780</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>43838</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>43865</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>43870</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>43870</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>43889</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43901</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>43906</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>43913</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>43957</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>44000</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>44040</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4557,7 +4557,7 @@
         <v>44040</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4614,7 +4614,7 @@
         <v>44081</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4671,7 +4671,7 @@
         <v>44084</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>44084</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>44089</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>44114</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>44114</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4956,7 +4956,7 @@
         <v>44115</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         <v>44127</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>44127</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>44133</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5184,7 +5184,7 @@
         <v>44140</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>44145</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         <v>44161</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5355,7 +5355,7 @@
         <v>44161</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5412,7 +5412,7 @@
         <v>44166</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>44168</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>44174</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>44186</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>44203</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>44211</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>44223</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>44225</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>44228</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>44230</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>44230</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>44235</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>44252</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>44284</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>44312</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>44349</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>44423</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>44440</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>44446</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44447</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44456</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44467</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44467</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44467</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44468</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>44470</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>44470</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>44482</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44487</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>44487</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>44530</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>44588</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>44596</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>44616</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>44657</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>44672</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>44678</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>44721</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>44725</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>44747</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>44757</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>44789</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>44803</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>44804</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>44837</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>44850</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>44853</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>44858</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
         <v>44858</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>44858</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44866</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8349,7 +8349,7 @@
         <v>44893</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8406,7 +8406,7 @@
         <v>44903</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8463,7 +8463,7 @@
         <v>44928</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8520,7 +8520,7 @@
         <v>44937</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>44958</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>44963</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>45001</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>45009</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>45020</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>45021</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>45028</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>45029</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>45043</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>45049</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>45054</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>45054</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>45075</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>45075</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>45092</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>45092</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>45093</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9546,7 +9546,7 @@
         <v>45093</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>45096</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>45104</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>45104</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>45104</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>45113</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>45117</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>45118</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>45125</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>45140</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>45148</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>45148</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>45167</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>45168</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>45187</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>

--- a/Översikt GNOSJÖ.xlsx
+++ b/Översikt GNOSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43922</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>44175</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
         <v>45161</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -827,7 +827,7 @@
         <v>43320</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         <v>43328</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>43342</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -998,7 +998,7 @@
         <v>43342</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>43353</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
         <v>43382</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>43389</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1226,7 +1226,7 @@
         <v>43398</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>43411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         <v>43417</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>43419</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>43419</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         <v>43440</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>43449</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>43451</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>43455</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>43468</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>43473</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>43476</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43476</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>43476</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>43481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>43495</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43495</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43496</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>43503</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>43503</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43503</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>43507</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>43511</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>43551</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43564</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43584</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43591</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43675</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43675</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>43675</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43675</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43696</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>43720</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43725</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>43727</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>43727</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>43731</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43741</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
         <v>43741</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3469,7 +3469,7 @@
         <v>43742</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>43742</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>43745</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>43745</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>43770</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>43770</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>43773</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3868,7 +3868,7 @@
         <v>43780</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>43838</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>43865</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>43870</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>43870</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>43889</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43901</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>43906</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>43913</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>43957</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>44000</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>44040</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4557,7 +4557,7 @@
         <v>44040</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4614,7 +4614,7 @@
         <v>44081</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4671,7 +4671,7 @@
         <v>44084</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>44084</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>44089</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>44114</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>44114</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4956,7 +4956,7 @@
         <v>44115</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         <v>44127</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>44127</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>44133</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5184,7 +5184,7 @@
         <v>44140</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>44145</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         <v>44161</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5355,7 +5355,7 @@
         <v>44161</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5412,7 +5412,7 @@
         <v>44166</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>44168</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>44174</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>44186</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>44203</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>44211</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>44223</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>44225</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>44228</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>44230</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>44230</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>44235</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>44252</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>44284</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>44312</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>44349</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>44423</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>44440</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>44446</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44447</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44456</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44467</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44467</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44467</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44468</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>44470</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>44470</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>44482</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44487</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>44487</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>44530</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>44588</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>44596</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>44616</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>44657</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>44672</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>44678</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>44721</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>44725</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>44747</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>44757</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>44789</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>44803</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>44804</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>44837</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>44850</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>44853</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>44858</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
         <v>44858</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>44858</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44866</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8349,7 +8349,7 @@
         <v>44893</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8406,7 +8406,7 @@
         <v>44903</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8463,7 +8463,7 @@
         <v>44928</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8520,7 +8520,7 @@
         <v>44937</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>44958</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>44963</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>45001</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>45009</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>45020</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>45021</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>45028</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>45029</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>45043</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>45049</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>45054</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>45054</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>45075</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>45075</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>45092</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>45092</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>45093</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9546,7 +9546,7 @@
         <v>45093</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>45096</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>45104</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>45104</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>45104</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>45113</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>45117</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>45118</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>45125</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>45140</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>45148</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>45148</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>45167</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>45168</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>45187</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>

--- a/Översikt GNOSJÖ.xlsx
+++ b/Översikt GNOSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43922</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>44175</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
         <v>45161</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -827,7 +827,7 @@
         <v>43320</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         <v>43328</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>43342</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -998,7 +998,7 @@
         <v>43342</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>43353</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
         <v>43382</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>43389</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1226,7 +1226,7 @@
         <v>43398</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>43411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         <v>43417</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>43419</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>43419</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         <v>43440</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>43449</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>43451</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>43455</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>43468</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>43473</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>43476</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43476</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>43476</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>43481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>43495</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43495</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43496</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>43503</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>43503</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43503</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>43507</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>43511</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>43551</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43564</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43584</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43591</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43675</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43675</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>43675</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43675</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43696</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>43720</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43725</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>43727</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>43727</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>43731</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43741</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
         <v>43741</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3469,7 +3469,7 @@
         <v>43742</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>43742</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>43745</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>43745</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>43770</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>43770</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>43773</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3868,7 +3868,7 @@
         <v>43780</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>43838</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>43865</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>43870</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>43870</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>43889</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43901</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>43906</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>43913</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>43957</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>44000</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>44040</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4557,7 +4557,7 @@
         <v>44040</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4614,7 +4614,7 @@
         <v>44081</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4671,7 +4671,7 @@
         <v>44084</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>44084</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>44089</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>44114</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>44114</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4956,7 +4956,7 @@
         <v>44115</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         <v>44127</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>44127</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>44133</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5184,7 +5184,7 @@
         <v>44140</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>44145</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         <v>44161</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5355,7 +5355,7 @@
         <v>44161</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5412,7 +5412,7 @@
         <v>44166</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>44168</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>44174</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>44186</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>44203</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>44211</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>44223</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>44225</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>44228</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>44230</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>44230</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>44235</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>44252</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>44284</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>44312</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>44349</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>44423</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>44440</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>44446</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44447</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44456</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44467</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44467</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44467</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44468</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>44470</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>44470</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>44482</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44487</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>44487</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>44530</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>44588</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>44596</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>44616</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>44657</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>44672</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>44678</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>44721</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>44725</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>44747</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>44757</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>44789</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>44803</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>44804</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>44837</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>44850</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>44853</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>44858</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
         <v>44858</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>44858</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44866</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8349,7 +8349,7 @@
         <v>44893</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8406,7 +8406,7 @@
         <v>44903</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8463,7 +8463,7 @@
         <v>44928</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8520,7 +8520,7 @@
         <v>44937</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>44958</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>44963</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>45001</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>45009</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>45020</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>45021</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>45028</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>45029</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>45043</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>45049</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>45054</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>45054</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>45075</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>45075</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>45092</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>45092</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>45093</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9546,7 +9546,7 @@
         <v>45093</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>45096</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>45104</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>45104</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>45104</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>45113</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>45117</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>45118</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>45125</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>45140</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>45148</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>45148</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>45167</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>45168</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>45187</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>

--- a/Översikt GNOSJÖ.xlsx
+++ b/Översikt GNOSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43922</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>44175</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
         <v>45161</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -827,7 +827,7 @@
         <v>43320</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         <v>43328</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>43342</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -998,7 +998,7 @@
         <v>43342</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>43353</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
         <v>43382</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>43389</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1226,7 +1226,7 @@
         <v>43398</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>43411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         <v>43417</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>43419</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>43419</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         <v>43440</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>43449</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>43451</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>43455</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>43468</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>43473</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>43476</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43476</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>43476</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>43481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>43495</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43495</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43496</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>43503</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>43503</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43503</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>43507</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>43511</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>43551</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43564</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43584</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43591</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43675</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43675</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>43675</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43675</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43696</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>43720</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43725</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>43727</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>43727</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>43731</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43741</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
         <v>43741</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3469,7 +3469,7 @@
         <v>43742</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>43742</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>43745</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>43745</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>43770</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>43770</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>43773</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3868,7 +3868,7 @@
         <v>43780</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>43838</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>43865</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>43870</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>43870</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>43889</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43901</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>43906</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>43913</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>43957</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>44000</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>44040</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4557,7 +4557,7 @@
         <v>44040</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4614,7 +4614,7 @@
         <v>44081</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4671,7 +4671,7 @@
         <v>44084</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>44084</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>44089</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>44114</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>44114</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4956,7 +4956,7 @@
         <v>44115</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         <v>44127</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>44127</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>44133</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5184,7 +5184,7 @@
         <v>44140</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>44145</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         <v>44161</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5355,7 +5355,7 @@
         <v>44161</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5412,7 +5412,7 @@
         <v>44166</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>44168</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>44174</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>44186</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>44203</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>44211</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>44223</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>44225</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>44228</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>44230</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>44230</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>44235</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>44252</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>44284</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>44312</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>44349</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>44423</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>44440</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>44446</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44447</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44456</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44467</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44467</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44467</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44468</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>44470</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>44470</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>44482</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44487</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>44487</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>44530</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>44588</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>44596</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>44616</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>44657</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>44672</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>44678</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>44721</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>44725</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>44747</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>44757</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>44789</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>44803</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>44804</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>44837</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>44850</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>44853</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>44858</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
         <v>44858</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>44858</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44866</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8349,7 +8349,7 @@
         <v>44893</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8406,7 +8406,7 @@
         <v>44903</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8463,7 +8463,7 @@
         <v>44928</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8520,7 +8520,7 @@
         <v>44937</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>44958</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>44963</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>45001</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>45009</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>45020</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>45021</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>45028</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>45029</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>45043</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>45049</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>45054</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>45054</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>45075</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>45075</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>45092</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>45092</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>45093</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9546,7 +9546,7 @@
         <v>45093</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>45096</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>45104</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>45104</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>45104</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>45113</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>45117</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>45118</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>45125</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>45140</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>45148</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>45148</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>45167</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>45168</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>45187</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>

--- a/Översikt GNOSJÖ.xlsx
+++ b/Översikt GNOSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43922</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>44175</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
         <v>45161</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -827,7 +827,7 @@
         <v>43320</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         <v>43328</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>43342</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -998,7 +998,7 @@
         <v>43342</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>43353</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
         <v>43382</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>43389</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1226,7 +1226,7 @@
         <v>43398</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>43411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         <v>43417</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>43419</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>43419</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         <v>43440</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>43449</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>43451</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>43455</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>43468</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>43473</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>43476</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43476</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>43476</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>43481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>43495</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43495</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43496</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>43503</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>43503</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43503</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>43507</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>43511</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>43551</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43564</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43584</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43591</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43675</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43675</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>43675</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43675</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43696</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>43720</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43725</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>43727</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>43727</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>43731</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43741</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
         <v>43741</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3469,7 +3469,7 @@
         <v>43742</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>43742</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>43745</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>43745</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>43770</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>43770</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>43773</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3868,7 +3868,7 @@
         <v>43780</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>43838</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>43865</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>43870</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>43870</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>43889</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43901</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>43906</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>43913</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>43957</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>44000</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>44040</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4557,7 +4557,7 @@
         <v>44040</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4614,7 +4614,7 @@
         <v>44081</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4671,7 +4671,7 @@
         <v>44084</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>44084</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>44089</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>44114</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>44114</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4956,7 +4956,7 @@
         <v>44115</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         <v>44127</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>44127</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>44133</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5184,7 +5184,7 @@
         <v>44140</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>44145</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         <v>44161</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5355,7 +5355,7 @@
         <v>44161</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5412,7 +5412,7 @@
         <v>44166</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>44168</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>44174</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>44186</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>44203</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>44211</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>44223</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>44225</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>44228</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>44230</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>44230</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>44235</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>44252</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>44284</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>44312</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>44349</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>44423</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>44440</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>44446</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44447</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44456</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44467</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44467</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44467</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44468</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>44470</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>44470</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>44482</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44487</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>44487</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>44530</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>44588</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>44596</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>44616</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>44657</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>44672</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>44678</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>44721</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>44725</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>44747</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>44757</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>44789</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>44803</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>44804</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>44837</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>44850</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>44853</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>44858</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
         <v>44858</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>44858</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44866</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8349,7 +8349,7 @@
         <v>44893</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8406,7 +8406,7 @@
         <v>44903</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8463,7 +8463,7 @@
         <v>44928</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8520,7 +8520,7 @@
         <v>44937</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>44958</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>44963</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>45001</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>45009</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>45020</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>45021</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>45028</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>45029</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>45043</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>45049</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>45054</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>45054</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>45075</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>45075</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>45092</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>45092</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>45093</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9546,7 +9546,7 @@
         <v>45093</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>45096</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>45104</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>45104</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>45104</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>45113</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>45117</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>45118</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>45125</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>45140</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>45148</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>45148</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>45167</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>45168</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>45187</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>

--- a/Översikt GNOSJÖ.xlsx
+++ b/Översikt GNOSJÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43922</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>44175</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
         <v>45161</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -827,7 +827,7 @@
         <v>43320</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         <v>43328</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>43342</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -998,7 +998,7 @@
         <v>43342</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>43353</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
         <v>43382</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>43389</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1226,7 +1226,7 @@
         <v>43398</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>43411</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         <v>43417</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>43419</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>43419</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         <v>43440</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>43449</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>43451</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>43455</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>43468</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>43473</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>43476</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>43476</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>43476</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>43481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>43495</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>43495</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>43496</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2262,7 +2262,7 @@
         <v>43503</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>43503</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         <v>43503</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>43507</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>43511</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>43551</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43564</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>43584</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>43591</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>43675</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>43675</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>43675</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43675</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>43696</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>43720</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>43725</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>43727</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>43727</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>43731</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>43741</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
         <v>43741</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3469,7 +3469,7 @@
         <v>43742</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>43742</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>43745</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>43745</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>43770</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>43770</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>43773</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3868,7 +3868,7 @@
         <v>43780</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>43838</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>43865</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>43870</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>43870</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>43889</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>43901</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>43906</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>43913</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>43957</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>44000</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>44040</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4557,7 +4557,7 @@
         <v>44040</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4614,7 +4614,7 @@
         <v>44081</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4671,7 +4671,7 @@
         <v>44084</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>44084</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>44089</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>44114</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>44114</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4956,7 +4956,7 @@
         <v>44115</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         <v>44127</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>44127</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>44133</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5184,7 +5184,7 @@
         <v>44140</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>44145</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5298,7 +5298,7 @@
         <v>44161</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5355,7 +5355,7 @@
         <v>44161</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5412,7 +5412,7 @@
         <v>44166</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5474,7 +5474,7 @@
         <v>44168</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>44174</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>44186</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>44203</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>44211</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>44223</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         <v>44225</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>44228</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>44230</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>44230</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         <v>44235</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>44252</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>44284</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>44312</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>44349</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>44423</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>44440</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>44446</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44447</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44456</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44467</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44467</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44467</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44468</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>44470</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>44470</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>44482</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44487</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>44487</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>44530</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>44588</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>44596</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>44616</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>44657</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>44672</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         <v>44678</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>44721</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>44725</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>44747</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>44757</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>44789</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>44803</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>44804</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>44837</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>44850</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>44853</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>44858</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
         <v>44858</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>44858</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44866</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8349,7 +8349,7 @@
         <v>44893</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8406,7 +8406,7 @@
         <v>44903</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8463,7 +8463,7 @@
         <v>44928</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8520,7 +8520,7 @@
         <v>44937</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>44958</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>44963</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>45001</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>45009</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>45020</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>45021</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>45028</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>45029</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>45043</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>45049</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>45054</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>45054</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>45075</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>45075</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>45092</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>45092</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>45093</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9546,7 +9546,7 @@
         <v>45093</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>45096</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>45104</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>45104</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>45104</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>45113</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>45117</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>45118</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>45125</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>45140</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>45148</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>45148</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>45167</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>45168</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>45187</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
